--- a/biology/Zoologie/Althepus_bako/Althepus_bako.xlsx
+++ b/biology/Zoologie/Althepus_bako/Althepus_bako.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Althepus bako est une espèce d'araignées aranéomorphes de la famille des Psilodercidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Althepus bako est une espèce d'araignées aranéomorphes de la famille des Psilodercidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sarawak en Malaisie orientale[1],[2]. Elle se rencontre dans le parc national de Bako.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sarawak en Malaisie orientale,. Elle se rencontre dans le parc national de Bako.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,3 mm de long sur 1,2 mm et l'abdomen 2,4 mm de long et la carapace de la femelle paratype mesure 1,3 mm de long sur 1,1 mm et l'abdomen 2,4 mm de long[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,3 mm de long sur 1,2 mm et l'abdomen 2,4 mm de long et la carapace de la femelle paratype mesure 1,3 mm de long sur 1,1 mm et l'abdomen 2,4 mm de long
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le parc national de Bako.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Deeleman-Reinhold, 1995 : The Ochyroceratidae of the Indo-Pacific region (Araneae). The Raffles Bulletin of Zoology Supplement, no 2, p. 1-103 (texte intégral).</t>
         </is>
